--- a/HypocrisyStudySI_4.xlsx
+++ b/HypocrisyStudySI_4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethhuppert/Desktop/preferences-for-moral-absolutism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6963E7EE-72D2-D843-BE26-5D1D97078518}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F77A6-0943-9748-B881-080824EB55AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="960" windowWidth="28040" windowHeight="16600"/>
+    <workbookView xWindow="-880" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HypocrisyStudySI_4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HypocrisyStudySI_4!$C$1:$C$436</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2064,7 +2078,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2902,11 +2916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="D446" sqref="D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9667,7 +9681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -27267,7 +27281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
